--- a/src/excel/AntigenSupportingData- Dengue-508.xlsx
+++ b/src/excel/AntigenSupportingData- Dengue-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3535BF-346C-4F10-AC6D-838B38B47CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53379F-2EAE-49C6-BB01-85BB06E7F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="209">
   <si>
     <t>Resources</t>
   </si>
@@ -671,6 +671,42 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>Dengue fever, unspecified (330)</t>
+  </si>
+  <si>
+    <t>Not Preferred</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Dengue Fever, Unspecified (330)</t>
+  </si>
+  <si>
+    <t>Risk 3-dose -&gt; Doses 1, 2, 3 -&gt; New Allowable Vaccine</t>
+  </si>
+  <si>
+    <t>Added Dengue Fever, Unspecified (330)</t>
+  </si>
+  <si>
+    <t>New CVX code, confirmed by Dengue Clinical SMEs to count towards U.S. vaccination given existing global Dengue vaccines.</t>
+  </si>
+  <si>
+    <t>Publication Date: 08/07/2025</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1520,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1896,6 +1932,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2224,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2565,7 +2613,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="143" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="62" t="s">
@@ -2590,39 +2638,60 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A27" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="132"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B29" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2632,7 +2701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2649,10 +2718,10 @@
         <v>45</v>
       </c>
       <c r="B1" s="138">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="134" t="s">
-        <v>196</v>
+        <v>4.63</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,164 +2744,169 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="123" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
       </c>
       <c r="C3" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="138">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="45">
+        <v>1</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="138">
+        <v>4.59</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="45">
+        <v>1</v>
+      </c>
+      <c r="C11" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="131" t="s">
+      <c r="D11" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B12" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C12" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D12" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E12" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F12" s="131" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B13" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C13" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="D13" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F13" s="131" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="45">
-        <v>4</v>
-      </c>
-      <c r="C6" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="138">
-        <v>4.42</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="45">
-        <v>1</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="134">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2840,18 +2914,117 @@
         <v>46</v>
       </c>
       <c r="B14" s="45">
+        <v>4</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="138">
+        <v>4.42</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="45">
         <v>1</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C18" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="134">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="45">
+        <v>1</v>
+      </c>
+      <c r="C22" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D22" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F22" s="131" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3199,7 +3372,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>180</v>
@@ -3354,7 +3527,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3854,39 +4027,31 @@
       <c r="E27" s="51"/>
       <c r="I27" s="92"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="I28" s="92"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B29" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="119"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="119"/>
       <c r="F29" s="119"/>
       <c r="G29" s="119"/>
@@ -3902,1186 +4067,1242 @@
       <c r="Q29" s="119"/>
       <c r="R29" s="119"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="122"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B31" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C31" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D31" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E31" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="133" t="s">
+      <c r="F31" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="133" t="s">
+      <c r="G31" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="88" t="s">
+      <c r="H31" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="88" t="s">
+      <c r="I31" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="88" t="s">
+      <c r="J31" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K30" s="88" t="s">
+      <c r="K31" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="88" t="s">
+      <c r="L31" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="88" t="s">
+      <c r="M31" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="88" t="s">
+      <c r="N31" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="88" t="s">
+      <c r="O31" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="88" t="s">
+      <c r="P31" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="Q30" s="88" t="s">
+      <c r="Q31" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="88" t="s">
+      <c r="R31" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="S30" s="88" t="s">
+      <c r="S31" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="T30" s="89" t="s">
+      <c r="T31" s="89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="R31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="S31" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="T31" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="B32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B33" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
+      <c r="C33" s="117"/>
+      <c r="I33" s="92"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B34" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="I33" s="92"/>
-    </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="C34" s="122"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="92"/>
+    </row>
+    <row r="35" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C35" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="I34" s="92"/>
-    </row>
-    <row r="35" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="I35" s="92"/>
+    </row>
+    <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9"/>
-      <c r="I35" s="92"/>
-    </row>
-    <row r="36" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="B36" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="9"/>
+      <c r="I36" s="92"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="I36" s="92"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
+      <c r="B37" s="70"/>
+      <c r="I37" s="92"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="136" t="s">
+      <c r="B38" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="I37" s="92"/>
-    </row>
-    <row r="38" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="I38" s="92"/>
+    </row>
+    <row r="39" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B39" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C39" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="95" t="s">
+      <c r="E39" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="95" t="s">
+      <c r="F39" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="133" t="s">
+      <c r="G39" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="133" t="s">
+      <c r="H39" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="92"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
+      <c r="I39" s="92"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="92"/>
-    </row>
-    <row r="40" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
+      <c r="B40" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="92"/>
+    </row>
+    <row r="41" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B41" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C41" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="106" t="s">
+      <c r="D41" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E41" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="95" t="s">
+      <c r="F41" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="95" t="s">
+      <c r="G41" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="95" t="s">
+      <c r="H41" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="95" t="s">
+      <c r="I41" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="86" t="s">
+      <c r="J41" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="K40" s="133" t="s">
+      <c r="K41" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="L40" s="133" t="s">
+      <c r="L41" s="133" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="112" t="s">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B42" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="87" t="s">
+      <c r="C42" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="G41" s="98" t="s">
+      <c r="G42" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="98" t="s">
+      <c r="H42" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="I42" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="133" t="s">
+      <c r="E43" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="133" t="s">
+      <c r="F43" s="133" t="s">
         <v>141</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="82" t="s">
-        <v>10</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="37"/>
       <c r="I43" s="92"/>
     </row>
-    <row r="44" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="92"/>
+    </row>
+    <row r="45" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D45" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="107" t="s">
+      <c r="F45" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="108" t="s">
+      <c r="G45" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="92"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
+      <c r="I45" s="92"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B46" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C46" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D46" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="56">
+      <c r="E46" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="56">
         <v>0.5</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G46" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I45" s="92"/>
-    </row>
-    <row r="46" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="I46" s="92"/>
+    </row>
+    <row r="47" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="3"/>
-      <c r="I46" s="92"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="3"/>
+      <c r="I47" s="92"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B48" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C48" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="51"/>
-      <c r="I47" s="92"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
+      <c r="D48" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="I48" s="92"/>
+    </row>
+    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="116" t="s">
+      <c r="B50" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="120" t="s">
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="119"/>
+    </row>
+    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="119"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="B51" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="122"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="119"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="B52" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="88" t="s">
+      <c r="C52" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D52" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E52" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="133" t="s">
+      <c r="F52" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="133" t="s">
+      <c r="G52" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="H50" s="88" t="s">
+      <c r="H52" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="88" t="s">
+      <c r="I52" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="J50" s="88" t="s">
+      <c r="J52" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K50" s="88" t="s">
+      <c r="K52" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="88" t="s">
+      <c r="L52" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="88" t="s">
+      <c r="M52" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="88" t="s">
+      <c r="N52" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="O50" s="88" t="s">
+      <c r="O52" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="88" t="s">
+      <c r="P52" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="Q50" s="88" t="s">
+      <c r="Q52" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="R50" s="88" t="s">
+      <c r="R52" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="S50" s="88" t="s">
+      <c r="S52" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="T50" s="89" t="s">
+      <c r="T52" s="89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="M51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="N51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="R51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="S51" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="T51" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="117"/>
-      <c r="I52" s="92"/>
     </row>
     <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="S53" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B54" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="117"/>
+      <c r="I54" s="92"/>
+    </row>
+    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="I53" s="92"/>
-    </row>
-    <row r="54" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="C55" s="122"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="I55" s="92"/>
+    </row>
+    <row r="56" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B56" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C56" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="I54" s="92"/>
-    </row>
-    <row r="55" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
+      <c r="D56" s="85"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="I56" s="92"/>
+    </row>
+    <row r="57" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="9"/>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="B57" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="9"/>
+      <c r="I57" s="92"/>
+    </row>
+    <row r="58" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="I56" s="92"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="103" t="s">
+      <c r="B58" s="70"/>
+      <c r="I58" s="92"/>
+    </row>
+    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="136" t="s">
+      <c r="B59" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="I57" s="92"/>
-    </row>
-    <row r="58" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="I59" s="92"/>
+    </row>
+    <row r="60" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B60" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C60" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D60" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="95" t="s">
+      <c r="E60" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="95" t="s">
+      <c r="F60" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="133" t="s">
+      <c r="G60" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="133" t="s">
+      <c r="H60" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="I58" s="92"/>
-    </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="I60" s="92"/>
+    </row>
+    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="92"/>
-    </row>
-    <row r="60" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A60" s="111" t="s">
+      <c r="B61" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="92"/>
+    </row>
+    <row r="62" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="111" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="K60" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="L60" s="133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="G61" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>56</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="133" t="s">
+      <c r="G62" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="K62" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="133" t="s">
+      <c r="L62" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="92"/>
-    </row>
-    <row r="64" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="B64" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="92"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="92"/>
+    </row>
+    <row r="66" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B66" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E66" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="107" t="s">
+      <c r="F66" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="108" t="s">
+      <c r="G66" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="I64" s="92"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="I65" s="92"/>
-    </row>
-    <row r="66" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="3"/>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="109" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B67" s="69" t="s">
         <v>158</v>
       </c>
       <c r="C67" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67" s="92"/>
+    </row>
+    <row r="68" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="3"/>
+      <c r="I68" s="92"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="51"/>
-      <c r="I67" s="92"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="111" t="s">
+      <c r="D69" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="I69" s="92"/>
+    </row>
+    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="I70" s="92"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="116" t="s">
+      <c r="B71" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="117"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="119"/>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="119"/>
-      <c r="R68" s="119"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="120" t="s">
+      <c r="C71" s="117"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="119"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="119"/>
+      <c r="P71" s="119"/>
+      <c r="Q71" s="119"/>
+      <c r="R71" s="119"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="122"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="119"/>
-      <c r="P69" s="119"/>
-      <c r="Q69" s="119"/>
-      <c r="R69" s="119"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="B72" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="122"/>
+      <c r="D72" s="119"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="119"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="B73" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="88" t="s">
+      <c r="C73" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="88" t="s">
+      <c r="D73" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="88" t="s">
+      <c r="E73" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="133" t="s">
+      <c r="F73" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="G70" s="133" t="s">
+      <c r="G73" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="H70" s="88" t="s">
+      <c r="H73" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="I70" s="88" t="s">
+      <c r="I73" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="J70" s="88" t="s">
+      <c r="J73" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K70" s="88" t="s">
+      <c r="K73" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="L70" s="88" t="s">
+      <c r="L73" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="M70" s="88" t="s">
+      <c r="M73" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N70" s="88" t="s">
+      <c r="N73" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="O70" s="88" t="s">
+      <c r="O73" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="88" t="s">
+      <c r="P73" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="Q70" s="88" t="s">
+      <c r="Q73" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="R70" s="88" t="s">
+      <c r="R73" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="S70" s="88" t="s">
+      <c r="S73" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="T70" s="89" t="s">
+      <c r="T73" s="89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="90" t="s">
+    <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="N71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="P71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="S71" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="T71" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
+      <c r="B74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="M74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="P74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="S74" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="T74" s="84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B75" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="117"/>
-      <c r="I72" s="92"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="90" t="s">
+      <c r="C75" s="117"/>
+      <c r="I75" s="92"/>
+    </row>
+    <row r="76" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B76" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="122"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="I73" s="92"/>
-    </row>
-    <row r="74" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
+      <c r="C76" s="122"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="I76" s="92"/>
+    </row>
+    <row r="77" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="93" t="s">
+      <c r="B77" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="95" t="s">
+      <c r="C77" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="85"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="I74" s="92"/>
-    </row>
-    <row r="75" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="90" t="s">
+      <c r="D77" s="85"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="I77" s="92"/>
+    </row>
+    <row r="78" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="71"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="9"/>
-      <c r="I75" s="92"/>
+      <c r="B78" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="71"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="9"/>
+      <c r="I78" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
